--- a/data/output/Pedido_Semana_07_21022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_deco_interior.xlsx
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>0</v>
@@ -2497,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U25" s="8" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="2" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S54" s="2" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="2" t="n">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S56" s="2" t="n">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="2" t="n">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S75" s="2" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T79" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" s="8" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S85" s="2" t="n">
         <v>0</v>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="R95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" s="2" t="n">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S101" s="2" t="n">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S103" s="2" t="n">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>2</v>
       </c>
       <c r="R105" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105" s="2" t="n">
         <v>0</v>
@@ -9463,13 +9463,13 @@
         <v>0</v>
       </c>
       <c r="R111" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T111" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U111" s="8" t="n">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>4</v>
       </c>
       <c r="R114" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S114" s="2" t="n">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="2" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="2" t="n">
         <v>0</v>
@@ -10516,13 +10516,13 @@
         <v>0</v>
       </c>
       <c r="R124" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T124" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124" s="8" t="n">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="R130" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S130" s="2" t="n">
         <v>0</v>
